--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A4031-E3D7-428A-9349-47B0BFAF80D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87CD0A4-51B5-4B73-BE61-42B5720E7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
   </bookViews>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6D438-81C6-456F-888C-875F5A2107FE}">
   <dimension ref="B5:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87CD0A4-51B5-4B73-BE61-42B5720E7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC6F73D-BB70-49FE-A9EA-F01A97D5857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
   </bookViews>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6D438-81C6-456F-888C-875F5A2107FE}">
   <dimension ref="B5:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC6F73D-BB70-49FE-A9EA-F01A97D5857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A0A24-E4DB-4B79-BC93-75ACCF84E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>library("tseries")</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t># Voir etrait du TP9 ci-contre</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>A FAIRE</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -531,6 +537,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,19 +857,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6D438-81C6-456F-888C-875F5A2107FE}">
-  <dimension ref="B5:L94"/>
+  <dimension ref="A5:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.5546875" style="9"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
@@ -871,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +892,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -890,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>29</v>
       </c>
@@ -898,7 +914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,7 +925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -923,22 +939,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -946,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -954,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -962,17 +978,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -980,37 +1002,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1058,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
@@ -1026,17 +1069,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
@@ -1044,7 +1093,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -1052,37 +1104,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1090,12 +1163,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1103,7 +1179,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1193,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
@@ -1125,7 +1207,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -1136,7 +1221,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B53" t="s">
         <v>43</v>
       </c>
@@ -1147,12 +1235,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B55" t="s">
         <v>47</v>
       </c>
@@ -1160,12 +1254,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>44</v>
       </c>
@@ -1173,7 +1270,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
@@ -1182,7 +1282,10 @@
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
@@ -1190,13 +1293,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
@@ -1204,7 +1313,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -1215,12 +1327,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>50</v>
       </c>
@@ -1228,57 +1343,57 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J67" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J69" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J76" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J77" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J79" t="s">
         <v>98</v>
       </c>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A0A24-E4DB-4B79-BC93-75ACCF84E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C35088-940E-4D6A-874C-80B401F5DFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t>library("tseries")</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t># H0 : Non stationnaire</t>
-  </si>
-  <si>
-    <t>AR(5)</t>
   </si>
   <si>
     <t>ARMA = arima(LVolcano, order=c(5, 0, 0), include.mean = TRUE)</t>
@@ -426,6 +423,21 @@
   </si>
   <si>
     <t>A FAIRE</t>
+  </si>
+  <si>
+    <t>AR(7)</t>
+  </si>
+  <si>
+    <t>MODELE 2</t>
+  </si>
+  <si>
+    <t>D=1 S=12</t>
+  </si>
+  <si>
+    <t>d=1</t>
+  </si>
+  <si>
+    <t>MODELE 3</t>
   </si>
 </sst>
 </file>
@@ -860,7 +872,7 @@
   <dimension ref="A5:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,10 +884,10 @@
   <sheetData>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
@@ -889,29 +901,29 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -919,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -930,127 +942,127 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>111</v>
-      </c>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>111</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>111</v>
-      </c>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -1058,394 +1070,392 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>111</v>
-      </c>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" t="s">
-        <v>78</v>
-      </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
         <v>47</v>
-      </c>
-      <c r="D55" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C35088-940E-4D6A-874C-80B401F5DFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431B146-8CCC-42EE-8CEA-BFD4F72A03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9060" activeTab="1" xr2:uid="{7D6CDBBD-D435-425E-8A9A-C59843E0661B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="1" r:id="rId1"/>
+    <sheet name="Modeles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
   <si>
     <t>library("tseries")</t>
   </si>
@@ -439,12 +440,84 @@
   <si>
     <t>MODELE 3</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Modèles</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>AutoArima</t>
+  </si>
+  <si>
+    <t>d=0   D=1</t>
+  </si>
+  <si>
+    <t>d=1   D=1</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +583,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6796E6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -537,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +654,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6D438-81C6-456F-888C-875F5A2107FE}">
   <dimension ref="A5:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1463,4 +1578,432 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164998C0-EA3A-4B1F-8E8B-7CDDD7409345}">
+  <dimension ref="A5:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="11"/>
+    <col min="2" max="2" width="11.5546875" style="9"/>
+    <col min="3" max="10" width="5.33203125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5</v>
+      </c>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5</v>
+      </c>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="27579" divId="TODO_27579" sourceType="range" sourceRef="A4:I23" destinationFile="C:\Users\kevin\Documents\GitHub\M2_serie_chrono\TODO.htm"/>
+  </webPublishItems>
+</worksheet>
 </file>